--- a/36269_中嶋智也_個人作成用/game/data/stage_table_editor.xlsx
+++ b/36269_中嶋智也_個人作成用/game/data/stage_table_editor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\game\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFF911A-66FB-43C3-A6C5-A15F48940D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03494C34-8F56-4772-BBB4-886FEEC5539A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{19905700-FAA4-4710-9F64-69C3D83BC501}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{19905700-FAA4-4710-9F64-69C3D83BC501}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,13 +106,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
+      <xdr:colOff>257173</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
@@ -129,8 +129,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3000374" y="123825"/>
-          <a:ext cx="4429126" cy="2962275"/>
+          <a:off x="3000373" y="123825"/>
+          <a:ext cx="5486401" cy="2962275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -247,7 +247,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>	</a:t>
+            <a:t>			</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -286,7 +286,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>	</a:t>
+            <a:t>			</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -333,7 +333,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>	</a:t>
+            <a:t>			</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -360,7 +360,15 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>：動く床</a:t>
+            <a:t>：動く床（スイッチが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のとき）</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -395,6 +403,45 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>幅</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>400	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>高さ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>64</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>：動く床（スイッチが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OFF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のとき）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
@@ -403,7 +450,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>400	</a:t>
+            <a:t>300	</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -719,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AA3F74-8308-41BB-A057-9236654F9CFD}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -743,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>1016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -754,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -762,13 +809,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>1700</v>
+        <v>1620</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -776,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>600</v>
@@ -787,10 +834,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="C6" s="1">
-        <v>600</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -848,9 +895,21 @@
         <v>300</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>620</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/36269_中嶋智也_個人作成用/game/data/stage_table_editor.xlsx
+++ b/36269_中嶋智也_個人作成用/game/data/stage_table_editor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\game\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03494C34-8F56-4772-BBB4-886FEEC5539A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59331E2-324E-40C2-957F-E1D4380BD2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{19905700-FAA4-4710-9F64-69C3D83BC501}"/>
   </bookViews>
@@ -766,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AA3F74-8308-41BB-A057-9236654F9CFD}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -886,23 +886,45 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="C11" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4600</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B14" s="1">
         <v>3000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C14" s="1">
         <v>620</v>
       </c>
     </row>

--- a/36269_中嶋智也_個人作成用/game/data/stage_table_editor.xlsx
+++ b/36269_中嶋智也_個人作成用/game/data/stage_table_editor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\game\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59331E2-324E-40C2-957F-E1D4380BD2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BB15C7-4856-48CB-86D1-D2628471AAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{19905700-FAA4-4710-9F64-69C3D83BC501}"/>
   </bookViews>
@@ -766,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AA3F74-8308-41BB-A057-9236654F9CFD}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -842,89 +842,155 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>500</v>
+        <v>5600</v>
       </c>
       <c r="C7" s="1">
-        <v>916</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="C8" s="1">
-        <v>500</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>3200</v>
+        <v>6500</v>
       </c>
       <c r="C9" s="1">
-        <v>1016</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>3500</v>
+        <v>6800</v>
       </c>
       <c r="C10" s="1">
-        <v>1016</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
-        <v>4300</v>
+        <v>5800</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>916</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
-        <v>4600</v>
+        <v>5900</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>916</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="C13" s="1">
-        <v>300</v>
+        <v>916</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3200</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3500</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4300</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4600</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5100</v>
+      </c>
+      <c r="C19" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
         <v>5</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B20" s="1">
         <v>3000</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C20" s="1">
         <v>620</v>
       </c>
     </row>

--- a/36269_中嶋智也_個人作成用/game/data/stage_table_editor.xlsx
+++ b/36269_中嶋智也_個人作成用/game/data/stage_table_editor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\game\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BB15C7-4856-48CB-86D1-D2628471AAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286C162C-F2FE-49FA-9270-C65E9F597289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{19905700-FAA4-4710-9F64-69C3D83BC501}"/>
   </bookViews>
@@ -766,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AA3F74-8308-41BB-A057-9236654F9CFD}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -809,13 +809,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>1620</v>
+        <v>7300</v>
       </c>
       <c r="C4" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="C5" s="1">
         <v>600</v>
@@ -834,10 +834,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>1016</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -845,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>5600</v>
+        <v>2900</v>
       </c>
       <c r="C7" s="1">
         <v>1016</v>
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="C8" s="1">
         <v>1016</v>
@@ -867,10 +867,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>6500</v>
+        <v>5900</v>
       </c>
       <c r="C9" s="1">
-        <v>700</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="C10" s="1">
         <v>700</v>
@@ -886,13 +886,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>5800</v>
+        <v>6800</v>
       </c>
       <c r="C11" s="1">
-        <v>916</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -900,7 +900,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="C12" s="1">
         <v>916</v>
@@ -911,7 +911,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="C13" s="1">
         <v>916</v>
@@ -919,13 +919,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="C14" s="1">
-        <v>1016</v>
+        <v>916</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
@@ -933,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="1">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="C15" s="1">
         <v>1016</v>
@@ -944,10 +944,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="1">
-        <v>4300</v>
+        <v>3500</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
@@ -955,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -963,13 +963,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1">
-        <v>4000</v>
+        <v>4600</v>
       </c>
       <c r="C18" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -977,20 +977,31 @@
         <v>4</v>
       </c>
       <c r="B19" s="1">
-        <v>5100</v>
+        <v>4100</v>
       </c>
       <c r="C19" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5100</v>
+      </c>
+      <c r="C20" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
         <v>3000</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <v>620</v>
       </c>
     </row>

--- a/36269_中嶋智也_個人作成用/game/data/stage_table_editor.xlsx
+++ b/36269_中嶋智也_個人作成用/game/data/stage_table_editor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\game\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286C162C-F2FE-49FA-9270-C65E9F597289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0CA001-4674-43CA-86B3-F9109A6D6AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{19905700-FAA4-4710-9F64-69C3D83BC501}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{19905700-FAA4-4710-9F64-69C3D83BC501}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -766,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AA3F74-8308-41BB-A057-9236654F9CFD}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -897,13 +897,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>5800</v>
+        <v>8900</v>
       </c>
       <c r="C12" s="1">
-        <v>916</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
@@ -911,7 +911,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="C13" s="1">
         <v>916</v>
@@ -922,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="C14" s="1">
         <v>916</v>
@@ -930,13 +930,13 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="C15" s="1">
-        <v>1016</v>
+        <v>916</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
@@ -944,7 +944,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="1">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="C16" s="1">
         <v>1016</v>
@@ -955,10 +955,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>4300</v>
+        <v>3500</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -966,7 +966,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="1">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -974,13 +974,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1">
-        <v>4100</v>
+        <v>4600</v>
       </c>
       <c r="C19" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
@@ -988,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1">
-        <v>5100</v>
+        <v>4100</v>
       </c>
       <c r="C20" s="1">
         <v>300</v>
@@ -996,12 +996,23 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5100</v>
+      </c>
+      <c r="C21" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>3000</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>620</v>
       </c>
     </row>
